--- a/template_goals.xlsx
+++ b/template_goals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chtsai/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77957F0E-D8B0-1340-9722-5877CBD8BCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB9AFD0-9847-E64E-8221-1719CBBF88F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="4740" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,14 +246,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -611,24 +603,20 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -636,17 +624,11 @@
     <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1152,22 +1134,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24047FBF-4633-4925-8A4A-5445A90EDBCC}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="14" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="15.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="14" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1213,267 +1195,243 @@
       <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="8">
+    <row r="2" spans="1:15">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>592</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>265291</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>0.23676641876279256</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>0.26488271369929622</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>0.31517842670878393</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>0.18317244082912726</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>0.155</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="9">
         <v>0.10299999999999999</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="9">
         <v>0.19199999999999995</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="9">
         <v>0.51700000000000002</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="9">
         <v>0.48299999999999998</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="10">
         <v>0.5</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="10">
         <v>0.5</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="8">
+    <row r="3" spans="1:15">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>1569</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>215457</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>0.25260724877817847</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>0.26907457172428839</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>0.29816622342277116</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>0.180151956074762</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>0.19600000000000001</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>0.57599999999999996</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>0.12900000000000011</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <v>0.54400000000000004</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <v>0.45700000000000002</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="10">
         <v>0.5</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="10">
         <v>0.5</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="8">
+    <row r="4" spans="1:15">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>372</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>31979</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>0.25632446292879701</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>0.28453047312298696</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>0.30441852465680602</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>0.15472653929140998</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>0.14199999999999999</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>0.06</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>0.746</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>5.2000000000000046E-2</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>0.76400000000000001</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="9">
         <v>0.23699999999999999</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <v>0.5</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="10">
         <v>0.5</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="8">
+    <row r="5" spans="1:15">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>224</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>12290</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>0.25809601301871438</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>0.28364524003254676</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>0.27794955248169245</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>0.18030919446704638</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>0.124</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>0.84199999999999997</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>2.6000000000000023E-2</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="9">
         <v>0.68800000000000006</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="9">
         <v>0.312</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>0.5</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>0.5</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="8">
+    <row r="6" spans="1:15">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>562</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>144927</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>0.25925465924223917</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>0.26632718541058603</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>0.29873660532543972</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>0.17568155002173508</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>4.7E-2</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <v>0.79300000000000004</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>8.0999999999999961E-2</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <v>0.44999999999999996</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="10">
         <v>0.5</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="10">
         <v>0.5</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -1489,12 +1447,8 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -1510,19 +1464,15 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1531,12 +1481,8 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:15">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -1552,12 +1498,8 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -1573,12 +1515,8 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -1594,12 +1532,8 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -1615,12 +1549,8 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -1636,94 +1566,6 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="15"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="15"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
